--- a/webcurator-webapp/src/main/webapp/spa/testfiles/bulk_import.xlsx
+++ b/webcurator-webapp/src/main/webapp/spa/testfiles/bulk_import.xlsx
@@ -101,7 +101,7 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -116,12 +116,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF55215B"/>
-        <bgColor rgb="FF660066"/>
+        <fgColor rgb="FFE8F2A1"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -129,6 +129,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -155,20 +162,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -218,7 +229,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFE8F2A1"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -238,14 +249,10 @@
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF55215B"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -256,91 +263,92 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="71.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="71.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="42.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="11.56"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="2"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3"/>
+      <c r="B7" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -350,6 +358,5 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>